--- a/Entrega 01/material.xlsx
+++ b/Entrega 01/material.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0E3FE541-2CA2-4636-A4DD-C0E0DBBE7652}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,10 +19,149 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+  <si>
+    <t>Dimensión bloque</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>[cm]</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>Largo [cm]</t>
+  </si>
+  <si>
+    <t>Ancho</t>
+  </si>
+  <si>
+    <t>Rec altura (cm)</t>
+  </si>
+  <si>
+    <t>Rec lateral (cm)</t>
+  </si>
+  <si>
+    <t>Teselado</t>
+  </si>
+  <si>
+    <t>W+Rec</t>
+  </si>
+  <si>
+    <t>H+Rec</t>
+  </si>
+  <si>
+    <t>Dimensión planta</t>
+  </si>
+  <si>
+    <t>Dimensión alturas</t>
+  </si>
+  <si>
+    <t>Muros</t>
+  </si>
+  <si>
+    <t>Ladrillos finales</t>
+  </si>
+  <si>
+    <t>Largo final</t>
+  </si>
+  <si>
+    <t>L2+L3</t>
+  </si>
+  <si>
+    <t>2L5+L6</t>
+  </si>
+  <si>
+    <t>L1 =</t>
+  </si>
+  <si>
+    <t>L4 =</t>
+  </si>
+  <si>
+    <t>L2 =</t>
+  </si>
+  <si>
+    <t>2L9+L10</t>
+  </si>
+  <si>
+    <t>L3 =</t>
+  </si>
+  <si>
+    <t>L9+L10+L12+L11</t>
+  </si>
+  <si>
+    <t>3L9+2L10+L11+L12</t>
+  </si>
+  <si>
+    <t>COMP. PLANTA</t>
+  </si>
+  <si>
+    <t>COMP. EJE 1 = EJE 4</t>
+  </si>
+  <si>
+    <t>PREV</t>
+  </si>
+  <si>
+    <t>Ancho puerta (L2-L7)</t>
+  </si>
+  <si>
+    <t>NUEVO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,12 +185,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +538,443 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1">
+        <f>D2+D6</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1">
+        <f>D3+D5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>820</v>
+      </c>
+      <c r="D9" s="8">
+        <f>C9/$G$2</f>
+        <v>27.333333333333332</v>
+      </c>
+      <c r="E9" s="1">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1">
+        <f>E9*$G$2</f>
+        <v>840</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>315</v>
+      </c>
+      <c r="D10" s="8">
+        <f>C10/$G$2</f>
+        <v>10.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1">
+        <f>E10*$G$2</f>
+        <v>330</v>
+      </c>
+      <c r="H10" s="4">
+        <f>F9</f>
+        <v>840</v>
+      </c>
+      <c r="I10" s="5">
+        <f>F10+F11</f>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>505</v>
+      </c>
+      <c r="D11" s="8">
+        <f>C11/$G$2</f>
+        <v>16.833333333333332</v>
+      </c>
+      <c r="E11" s="1">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1">
+        <f>E11*$G$2</f>
+        <v>510</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="8">
+        <f>C12/$G$2</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="E12" s="1">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1">
+        <f>E12*$G$2</f>
+        <v>1020</v>
+      </c>
+      <c r="H12" s="4">
+        <f>F12</f>
+        <v>1020</v>
+      </c>
+      <c r="I12" s="5">
+        <f>F13*2+F14</f>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>390</v>
+      </c>
+      <c r="D13" s="8">
+        <f>C13/$G$2</f>
+        <v>13</v>
+      </c>
+      <c r="E13" s="1">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1">
+        <f>E13*$G$2</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>220</v>
+      </c>
+      <c r="D14" s="8">
+        <f>C14/$G$2</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="E14" s="1">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1">
+        <f>E14*$G$2</f>
+        <v>240</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>225</v>
+      </c>
+      <c r="D15" s="8">
+        <f>C15/$G$2</f>
+        <v>7.5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <f>E15*$G$2</f>
+        <v>240</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1">
+        <v>285</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" ref="D16:E20" si="0">C16/$G$2</f>
+        <v>9.5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" ref="F16:F20" si="1">E16*$G$2</f>
+        <v>300</v>
+      </c>
+      <c r="H16" s="4">
+        <f>F10</f>
+        <v>330</v>
+      </c>
+      <c r="I16" s="5">
+        <f>2*F17+F18</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>105</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1">
+        <v>120</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="H18" s="4">
+        <f>F11</f>
+        <v>510</v>
+      </c>
+      <c r="I18" s="5">
+        <f>F17+F18+F19+F20</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>90</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1">
+        <v>154</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="0"/>
+        <v>5.1333333333333337</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="H20" s="4">
+        <f>F9</f>
+        <v>840</v>
+      </c>
+      <c r="I20" s="5">
+        <f>3*F17+2*F18+F19+F20</f>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>310</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="3">
+        <f>C10-C15</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="5">
+        <f>F10-F15</f>
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>